--- a/versions/v14/docs/mobile-attack-v14.0/mobile-attack-v14.0-software.xlsx
+++ b/versions/v14/docs/mobile-attack-v14.0/mobile-attack-v14.0-software.xlsx
@@ -2032,13 +2032,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2143,13 +2143,13 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
+    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2170,7 +2170,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2239,7 +2239,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>
